--- a/Renovacao/Dados_Renovacao/Original/Aline Regina Diogo Gonzaga.xlsx
+++ b/Renovacao/Dados_Renovacao/Original/Aline Regina Diogo Gonzaga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N152"/>
+  <dimension ref="A1:N130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +516,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12784</t>
+          <t>13179</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -526,17 +526,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>PRISCILA DE OLIVEIRA LIMA PALMA</t>
+          <t>ELCIO ROBERTO GONCALVES</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>De: 01/10/2023a01/10/2024</t>
+          <t>De: 01/11/2023a01/11/2024</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>53103CGQGDN9D9</t>
+          <t>53103CGQIQB3L4</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12837</t>
+          <t>13225</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -596,17 +596,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>JOAO ALVES PIRES</t>
+          <t>MARCIO AUGUSTO DE SOUZA DIAS</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>De: 03/10/2023a03/10/2024</t>
+          <t>De: 04/11/2023a04/11/2024</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>53103CGQGP07L4</t>
+          <t>53103CGQJ061D2</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12820</t>
+          <t>13253</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ALISON INACIO DA SILVA</t>
+          <t>MARIA APARECIDA TRUYTS</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>De: 04/10/2023a04/10/2024</t>
+          <t>De: 08/11/2023a08/11/2024</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>53103CGQGLD1D0</t>
+          <t>53103CGQJ66357</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -721,12 +721,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12875</t>
+          <t>102026</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -736,17 +736,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NATALINO LETIERI</t>
+          <t>LILIAN MARIA DA SILVEIRA</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>De: 06/10/2023a06/10/2024</t>
+          <t>De: 12/11/2023a12/11/2024</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>53103CGQGX5F50</t>
+          <t>53123089793708</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12853</t>
+          <t>13440</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MARCO AURELIO DE SOUZA DIAS</t>
+          <t>MARA REGINA GAMITO DA SILVA</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>De: 08/10/2023a08/10/2024</t>
+          <t>De: 22/11/2023a22/11/2024</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>53103CGQGSFO14</t>
+          <t>53103CGQKA8ZL6</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12877</t>
+          <t>13207</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -876,17 +876,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>JAMIL ABOU HAMIA</t>
+          <t>RONALDO ALEXANDRE MACHADO</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>De: 09/10/2023a09/10/2024</t>
+          <t>De: 01/11/2023a01/11/2024</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>53103CGQGXKUP0</t>
+          <t>53103CGQIWB5D6</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>505404 - A L CORR DE SEGS SOC UNIPESSOAL</t>
+          <t>403436 - A R MAGALHAES &amp; FILHOS CORR SEGS</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12927</t>
+          <t>13318</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -946,17 +946,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ARTUR JOSE PRADO LEITE</t>
+          <t>ALTAMIR SOUZA DE OLIVEIRA</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>De: 11/10/2023a11/10/2024</t>
+          <t>De: 13/11/2023a13/11/2024</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>53103CGQH8ANL3</t>
+          <t>53103CGQJK3MP2</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>505404 - A L CORR DE SEGS SOC UNIPESSOAL</t>
+          <t>403436 - A R MAGALHAES &amp; FILHOS CORR SEGS</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12941</t>
+          <t>13479</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1016,17 +1016,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>HENRIQUE JOSE REIS SANTANA E SANTOS</t>
+          <t>RICARDO RODOLFO DE REZENDE PRADO</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>De: 14/10/2023a14/10/2024</t>
+          <t>De: 24/11/2023a24/11/2024</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>53103CGQHBAOH2</t>
+          <t>53103CGQKILWX3</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>505404 - A L CORR DE SEGS SOC UNIPESSOAL</t>
+          <t>403436 - A R MAGALHAES &amp; FILHOS CORR SEGS</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12963</t>
+          <t>13499</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1086,17 +1086,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MARCELO HENRIQUE DO PRADO</t>
+          <t>ALTAMIR SOUZA DE OLIVEIRA</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>De: 15/10/2023a15/10/2024</t>
+          <t>De: 27/11/2023a27/11/2024</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>53103CGQHG0FL9</t>
+          <t>53103CGQKMW8H9</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>505404 - A L CORR DE SEGS SOC UNIPESSOAL</t>
+          <t>403436 - A R MAGALHAES &amp; FILHOS CORR SEGS</t>
         </is>
       </c>
     </row>
@@ -1134,46 +1134,14 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>12964</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>MARCELO HENRIQUE DO PRADO</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>De: 15/10/2023a15/10/2024</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>53103CGQHG85D0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -1196,7 +1164,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>505404 - A L CORR DE SEGS SOC UNIPESSOAL</t>
+          <t>490020 - ALBA ANDRADE CORRETORA DE SEGURO</t>
         </is>
       </c>
     </row>
@@ -1211,12 +1179,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>101201</t>
+          <t>13417</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1226,17 +1194,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>BENILTON GREGORIO DE OLIVEIRA</t>
+          <t>ADRIANA OLIVEIRA BARRETO</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>De: 16/10/2023a16/10/2024</t>
+          <t>De: 21/11/2023a21/11/2024</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>53123088743430</t>
+          <t>53103CGQK5BIP3</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1266,7 +1234,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>505404 - A L CORR DE SEGS SOC UNIPESSOAL</t>
+          <t>404093 - AMPARATO CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
     </row>
@@ -1281,12 +1249,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>13037</t>
+          <t>102461</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1296,17 +1264,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>KEILA KAUANE JANKUNAS DE SOUZA</t>
+          <t>ANA CLAUDIA DOS SANTOS</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>De: 18/10/2023a18/10/2024</t>
+          <t>De: 25/11/2023a25/11/2024</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>53103CGQHVVF54</t>
+          <t>53123090634618</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1336,7 +1304,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>505404 - A L CORR DE SEGS SOC UNIPESSOAL</t>
+          <t>404093 - AMPARATO CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
     </row>
@@ -1351,12 +1319,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>13036</t>
+          <t>102153</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1366,17 +1334,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>JAMIL ABOU HAMIA</t>
+          <t>JOSE CARLOS BONFIM DE SOUZA</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>De: 19/10/2023a19/10/2024</t>
+          <t>De: 14/11/2023a14/11/2024</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>53103CGQHVNPD9</t>
+          <t>53123090106093</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1406,7 +1374,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>505404 - A L CORR DE SEGS SOC UNIPESSOAL</t>
+          <t>501944 - BARUCH CORR E ADM DE SEGUROS EIR</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1394,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>101387</t>
+          <t>102429</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1436,17 +1404,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ANA CAROLINE JESUS SANTOS</t>
+          <t>L.B DEDETIZADORA E SERVICOS LTDA</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>De: 23/10/2023a23/10/2024</t>
+          <t>De: 21/11/2023a21/11/2024</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>53123088921370</t>
+          <t>53123090581271</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1476,7 +1444,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>505404 - A L CORR DE SEGS SOC UNIPESSOAL</t>
+          <t>501944 - BARUCH CORR E ADM DE SEGUROS EIR</t>
         </is>
       </c>
     </row>
@@ -1491,12 +1459,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>101981</t>
+          <t>13014</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1506,17 +1474,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>NILTON FERREIRA DA SILVA</t>
+          <t>DANIEL LUIS DOS SANTOS</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>De: 30/10/2023a30/10/2024</t>
+          <t>De: 01/11/2023a01/11/2024</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>53123089733543</t>
+          <t>53103CGQHQXY90</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1546,7 +1514,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>505404 - A L CORR DE SEGS SOC UNIPESSOAL</t>
+          <t>445350 - BASSI DOMENICONI CORRETORA DE SE</t>
         </is>
       </c>
     </row>
@@ -1561,12 +1529,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2639</t>
+          <t>102102</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1576,17 +1544,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>SAMUEL GONCALVES LUCENA LIMA</t>
+          <t>GABRIELA RODRIGUES DOS SANTOS</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>De: 31/10/2023a31/10/2024</t>
+          <t>De: 06/11/2023a06/11/2024</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>53103CGORZ7XT1</t>
+          <t>53123089978929</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1616,7 +1584,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>505404 - A L CORR DE SEGS SOC UNIPESSOAL</t>
+          <t>445350 - BASSI DOMENICONI CORRETORA DE SE</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1604,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>101567</t>
+          <t>101996</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1646,17 +1614,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>FELIPE RUDON CASTRO</t>
+          <t>MARIA APARECIDA DOS REIS MIRANDA DE JESU</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>De: 23/10/2023a23/10/2024</t>
+          <t>De: 07/11/2023a07/11/2024</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>53123089140160</t>
+          <t>53123089733691</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1686,7 +1654,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>403436 - A R MAGALHAES &amp; FILHOS CORR SEGS</t>
+          <t>445350 - BASSI DOMENICONI CORRETORA DE SE</t>
         </is>
       </c>
     </row>
@@ -1701,12 +1669,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2583</t>
+          <t>13289</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1716,17 +1684,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ROSA RENEE ACADEMIA LTDA</t>
+          <t>ANDRE SEICHI RIBEIRO KURAMOTO</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>De: 26/10/2023a26/10/2024</t>
+          <t>De: 09/11/2023a09/11/2024</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>53103CGORN7U93</t>
+          <t>53103CGQJDVV51</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1756,7 +1724,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>403436 - A R MAGALHAES &amp; FILHOS CORR SEGS</t>
+          <t>445350 - BASSI DOMENICONI CORRETORA DE SE</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1744,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>13141</t>
+          <t>13368</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1786,17 +1754,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>JAIRO DONIZETE FERREIRA</t>
+          <t>LUAN THIAGO PEREZ</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>De: 27/10/2023a27/10/2024</t>
+          <t>De: 17/11/2023a17/11/2024</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>53103CGQII5W19</t>
+          <t>53103CGQJUTFL3</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1826,7 +1794,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>403436 - A R MAGALHAES &amp; FILHOS CORR SEGS</t>
+          <t>445350 - BASSI DOMENICONI CORRETORA DE SE</t>
         </is>
       </c>
     </row>
@@ -1841,12 +1809,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>101889</t>
+          <t>13447</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1856,17 +1824,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>RENAN ORTIZ</t>
+          <t>JENEFER DE ALENCAR SILVA</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>De: 26/10/2023a26/10/2024</t>
+          <t>De: 23/11/2023a23/11/2024</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>53123089606762</t>
+          <t>53103CGQKBR010</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1896,7 +1864,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>490020 - ALBA ANDRADE CORRETORA DE SEGURO</t>
+          <t>445350 - BASSI DOMENICONI CORRETORA DE SE</t>
         </is>
       </c>
     </row>
@@ -1911,12 +1879,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>101227</t>
+          <t>13485</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1926,17 +1894,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ROBERTO DOS REIS CAMARGO</t>
+          <t>MARCUS VINICIUS MARTONI TIBURCIO</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>De: 13/10/2023a13/10/2024</t>
+          <t>De: 23/11/2023a23/11/2024</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>53123088805842</t>
+          <t>53103CGQKJW7L8</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1966,7 +1934,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>404093 - AMPARATO CORRETORA DE SEGUROS LT</t>
+          <t>445350 - BASSI DOMENICONI CORRETORA DE SE</t>
         </is>
       </c>
     </row>
@@ -1974,14 +1942,46 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13488</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>ARY DA COSTA NOGUEIRA FILHO</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>De: 24/11/2023a24/11/2024</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>53103CGQKKJCX6</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>501944 - BARUCH CORR E ADM DE SEGUROS EIR</t>
+          <t>445350 - BASSI DOMENICONI CORRETORA DE SE</t>
         </is>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>12824</t>
+          <t>13460</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2034,17 +2034,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>RODRIGO PEREIRA FERREIRA HASHIMOTO</t>
+          <t>MARILZA LUNARDI</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>De: 03/10/2023a03/10/2024</t>
+          <t>De: 27/11/2023a27/11/2024</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>53103CGQGM7WH2</t>
+          <t>53103CGQKEJB50</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>100679</t>
+          <t>102423</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2104,22 +2104,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ANA PAULA BUENO</t>
+          <t>ANDRESSA BOSCHETTI</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>De: 04/10/2023a04/10/2024</t>
+          <t>De: 28/11/2023a28/11/2024</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>53123087946647</t>
+          <t>53123090528117</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2159,12 +2159,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>926</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>12859</t>
+          <t>2719</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2174,17 +2174,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>WAGNER SANT ANNA</t>
+          <t>MARIA BERNADETTE PEREIRA DOS SANTOS</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>De: 06/10/2023a06/10/2024</t>
+          <t>De: 29/11/2023a29/11/2024</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>53103CGQGTPYP0</t>
+          <t>53103CGOSGD816</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2234,7 +2234,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>12898</t>
+          <t>13514</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2244,17 +2244,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MAURICIO FERREIRA QUELHAS</t>
+          <t>MAURO MEDA JUNIOR</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>De: 09/10/2023a09/10/2024</t>
+          <t>De: 30/11/2023a30/11/2024</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>53103CGQH22W10</t>
+          <t>53103CGQKQ3Z53</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2304,7 +2304,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12888</t>
+          <t>13548</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2314,17 +2314,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>JOAO PAULO MARTINS TROGLIO</t>
+          <t>LUIZ HENRIQUE MENTZINGEN DOS SANTOS</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>De: 10/10/2023a10/10/2024</t>
+          <t>De: 30/11/2023a30/11/2024</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>53103CGQGZXQ97</t>
+          <t>53103CGQKXEBL0</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>12900</t>
+          <t>13552</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2384,17 +2384,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>PAULO SERGIO DA SILVA JUNIOR</t>
+          <t>GABRIEL FELIX MENTZINGEN DOS SANTOS</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>De: 10/10/2023a10/10/2024</t>
+          <t>De: 30/11/2023a30/11/2024</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>53103CGQH2IBL4</t>
+          <t>53103CGQKY96P4</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2439,12 +2439,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>100987</t>
+          <t>13555</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2454,17 +2454,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>FERNANDO LUIS CASSIANO</t>
+          <t>GUSTAVO FELIX MENTZINGEN DOS SANTOS</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>De: 16/10/2023a16/10/2024</t>
+          <t>De: 30/11/2023a30/11/2024</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>53123088464069</t>
+          <t>53103CGQKYWC16</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2514,7 +2514,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12887</t>
+          <t>13543</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2524,17 +2524,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>FAUEZ NEIF RACHID</t>
+          <t>VICTOR RIBEIRO COSTA BAETA DA SILVA</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>De: 19/10/2023a19/10/2024</t>
+          <t>De: 29/11/2023a29/11/2024</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>53103CGQGZQ0H5</t>
+          <t>53103CGQKWBQP7</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>445350 - BASSI DOMENICONI CORRETORA DE SE</t>
+          <t>404503 - BENAIA CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -2579,12 +2579,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>12984</t>
+          <t>101873</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2594,22 +2594,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ABIMAEL MAIDANA BRANDAO</t>
+          <t>JOSE ANTONIO DA VEIGA</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>De: 19/10/2023a19/10/2024</t>
+          <t>De: 05/11/2023a05/11/2024</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>53103CGQHKIGX5</t>
+          <t>53123089518669</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>445350 - BASSI DOMENICONI CORRETORA DE SE</t>
+          <t>402229 - CELEBRA ADM.COR.SEGUROS S/C LTDA</t>
         </is>
       </c>
     </row>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>101547</t>
+          <t>102360</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2664,17 +2664,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>LILIAN MAYUMI VITORIANO MORIMOTO</t>
+          <t>LILIAN PRADO DA SILVA</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>De: 20/10/2023a20/10/2024</t>
+          <t>De: 07/11/2023a07/11/2024</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>53123089139960</t>
+          <t>53123090462540</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>445350 - BASSI DOMENICONI CORRETORA DE SE</t>
+          <t>486565 - CL CONFIDENCE CORRETORA DE SEGS</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>101261</t>
+          <t>101925</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2734,17 +2734,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>REFORTEC REFORMAS TECNICAS E EQUIPAMENTO</t>
+          <t>CAROLINA PEREIRA DA COSTA</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>De: 22/10/2023a22/10/2024</t>
+          <t>De: 06/11/2023a06/11/2024</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>53123088806180</t>
+          <t>53123089607122</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>445350 - BASSI DOMENICONI CORRETORA DE SE</t>
+          <t>436604 - COSTA VALE CORR</t>
         </is>
       </c>
     </row>
@@ -2782,46 +2782,14 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>13088</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>JULIO CESAR DE CARVALHO</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>De: 24/10/2023a24/10/2024</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>53103CGQI6SXT0</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -2844,7 +2812,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>445350 - BASSI DOMENICONI CORRETORA DE SE</t>
+          <t>444489 - E A M ROSA CORRETORA DE SEGUROS</t>
         </is>
       </c>
     </row>
@@ -2852,46 +2820,14 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>13050</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>BENEDITO GONCALVES BUENO</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>De: 25/10/2023a25/10/2024</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>53103CGQHYNQ92</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -2914,7 +2850,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>445350 - BASSI DOMENICONI CORRETORA DE SE</t>
+          <t>495291 - ELECT CORRETORA DE SEG E CONSULT</t>
         </is>
       </c>
     </row>
@@ -2929,12 +2865,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>13149</t>
+          <t>102063</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2944,22 +2880,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ANDRE SEICHI RIBEIRO KURAMOTO</t>
+          <t>JULIAN FERNANDO ALVES PEREIRA</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>De: 30/10/2023a30/10/2024</t>
+          <t>De: 10/11/2023a10/11/2024</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>53103CGQIJVM97</t>
+          <t>53123089846119</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2984,7 +2920,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>445350 - BASSI DOMENICONI CORRETORA DE SE</t>
+          <t>400552 - ELIANA DE PAULA TINOCO</t>
         </is>
       </c>
     </row>
@@ -2992,46 +2928,14 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>101002</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>ALINE DE LIMA FIGUEIREDO</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>De: 11/10/2023a11/10/2024</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>53123088464212</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3054,7 +2958,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>404503 - BENAIA CORRETORA DE SEGUROS LTDA</t>
+          <t>401292 - FACILIT CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
     </row>
@@ -3069,12 +2973,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>102200</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3084,17 +2988,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>EK CLINICA DE ESTETICA</t>
+          <t>BENTO TEODORO DA SILVA FILHO</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>De: 19/10/2023a19/10/2024</t>
+          <t>De: 13/11/2023a13/11/2024</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>53103CGORU2R55</t>
+          <t>53123090179937</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3124,7 +3028,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>404503 - BENAIA CORRETORA DE SEGUROS LTDA</t>
+          <t>404395 - FAMILIA CASTELLO CORR DE SEG LTD</t>
         </is>
       </c>
     </row>
@@ -3139,12 +3043,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>13047</t>
+          <t>102612</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3154,17 +3058,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>REGINALDO GOMES DA SILVA</t>
+          <t>HELCIO LUIZ CASTELLO DE MORAES FILHO</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>De: 20/10/2023a20/10/2024</t>
+          <t>De: 22/11/2023a22/11/2024</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>53103CGQHY0KX1</t>
+          <t>53123090964170</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3194,7 +3098,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>404503 - BENAIA CORRETORA DE SEGUROS LTDA</t>
+          <t>404395 - FAMILIA CASTELLO CORR DE SEG LTD</t>
         </is>
       </c>
     </row>
@@ -3209,12 +3113,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>13143</t>
+          <t>102208</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3224,17 +3128,17 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>PRISCIANE FERNANDES CAZARINO GUILHEM</t>
+          <t>BRUNA DAVID CARDOSO</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>De: 27/10/2023a27/10/2024</t>
+          <t>De: 21/11/2023a21/11/2024</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>53103CGQIILBL3</t>
+          <t>53123090180013</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3264,7 +3168,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>404503 - BENAIA CORRETORA DE SEGUROS LTDA</t>
+          <t>524248 - FORTIS CORRETORA DE SEGUROS E IN</t>
         </is>
       </c>
     </row>
@@ -3272,14 +3176,46 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>102186</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>SANDRA PAULA APARECIDA DE CARVALHO</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>De: 17/11/2023a17/11/2024</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>53123090106425</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J42" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3302,7 +3238,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>402229 - CELEBRA ADM.COR.SEGUROS S/C LTDA</t>
+          <t>400048 - FRANCISCO VICENTE LEMES DE PAIVA</t>
         </is>
       </c>
     </row>
@@ -3310,46 +3246,14 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>12870</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>ALINE PACHECO NOVAES</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>De: 06/10/2023a06/10/2024</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>53103CGQGW2U98</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3372,7 +3276,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>486565 - CL CONFIDENCE CORRETORA DE SEGS</t>
+          <t>509062 - FS ACERTO CONSULT E CORR DE SEGU</t>
         </is>
       </c>
     </row>
@@ -3387,12 +3291,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>917</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>12873</t>
+          <t>1557</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3402,17 +3306,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>SHIRLEY CASSIANO LEITE</t>
+          <t>TRUSTY SERVICOS E COMERCIO LTDA</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>De: 06/10/2023a06/10/2024</t>
+          <t>De: 08/11/2023a08/11/2024</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>53103CGQGWPZL0</t>
+          <t>53103CGOLJB699</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3442,7 +3346,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>486565 - CL CONFIDENCE CORRETORA DE SEGS</t>
+          <t>421702 - GAMARRA CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
     </row>
@@ -3457,12 +3361,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>917</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>12889</t>
+          <t>1558</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3472,17 +3376,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>ROSAURA MARILEY VILAS BOAS MORAES</t>
+          <t>TRUSTY SERVICOS E COMERCIO LTDA</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>De: 06/10/2023a06/10/2024</t>
+          <t>De: 19/11/2023a19/11/2024</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>53103CGQH05G11</t>
+          <t>53103CGOLJIW18</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3512,7 +3416,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>486565 - CL CONFIDENCE CORRETORA DE SEGS</t>
+          <t>421702 - GAMARRA CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
     </row>
@@ -3527,12 +3431,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1325</t>
+          <t>13308</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3542,17 +3446,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>EDIFICIO GUAIBA</t>
+          <t>MARIA RUTH PEREIRA DE SOUZA</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>De: 19/10/2023a19/10/2024</t>
+          <t>De: 11/11/2023a11/11/2024</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>53103CGOK5L1T8</t>
+          <t>53103CGQJHYGX0</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3582,7 +3486,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>486565 - CL CONFIDENCE CORRETORA DE SEGS</t>
+          <t>481920 - GF INVEST SEGURO CORR DE SEG LTD</t>
         </is>
       </c>
     </row>
@@ -3597,12 +3501,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>101899</t>
+          <t>13309</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3612,22 +3516,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>JULIANA OLIVEIRA DA ROVARE</t>
+          <t>MARIA RUTH PEREIRA DE SOUZA</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>De: 27/10/2023a27/10/2024</t>
+          <t>De: 11/11/2023a11/11/2024</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>53123089606860</t>
+          <t>53103CGQJI66P3</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3652,7 +3556,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>486565 - CL CONFIDENCE CORRETORA DE SEGS</t>
+          <t>481920 - GF INVEST SEGURO CORR DE SEG LTD</t>
         </is>
       </c>
     </row>
@@ -3667,12 +3571,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>101616</t>
+          <t>13311</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3682,17 +3586,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>MARIA RENATA PEREIRA DA COSTA</t>
+          <t>ALDAZIZA ALVES DE SOUSA DOS SANTOS</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>De: 23/10/2023a23/10/2024</t>
+          <t>De: 11/11/2023a11/11/2024</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>53123089199741</t>
+          <t>53103CGQJILM92</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3722,7 +3626,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>436604 - COSTA VALE CORR</t>
+          <t>481920 - GF INVEST SEGURO CORR DE SEG LTD</t>
         </is>
       </c>
     </row>
@@ -3737,12 +3641,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>101858</t>
+          <t>13338</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3752,22 +3656,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>JUVERCI MARCOS PEREIRA</t>
+          <t>ANTONIO AUGUSTO COELHO DE SOUZA JUNIOR</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>De: 30/10/2023a30/10/2024</t>
+          <t>De: 14/11/2023a14/11/2024</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>53123089518510</t>
+          <t>53103CGQJODY91</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3792,7 +3696,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>436604 - COSTA VALE CORR</t>
+          <t>481920 - GF INVEST SEGURO CORR DE SEG LTD</t>
         </is>
       </c>
     </row>
@@ -3800,14 +3704,46 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>102230</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>ROSALIA MARIA DE OLIVEIRA MORAIS</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>De: 14/11/2023a14/11/2024</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>53123090263512</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J50" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3830,7 +3766,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>444489 - E A M ROSA CORRETORA DE SEGUROS</t>
+          <t>481920 - GF INVEST SEGURO CORR DE SEG LTD</t>
         </is>
       </c>
     </row>
@@ -3838,14 +3774,46 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>101636</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>RITA DE CASSIA BARBOSA DE MELO</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>De: 01/11/2023a01/11/2024</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>53123089199946</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J51" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3868,7 +3836,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>495291 - ELECT CORRETORA DE SEG E CONSULT</t>
+          <t>404640 - IMS CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -3888,7 +3856,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>100892</t>
+          <t>102017</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3898,17 +3866,17 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>CLAUDIO CARVALHO DA SILVA</t>
+          <t>JAM MANTENEDORA JACAREI AMPARA MENORES</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>De: 11/10/2023a11/10/2024</t>
+          <t>De: 03/11/2023a03/11/2024</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>53123088317210</t>
+          <t>53123089793619</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3938,7 +3906,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>400552 - ELIANA DE PAULA TINOCO</t>
+          <t>404640 - IMS CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -3946,14 +3914,46 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>101967</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>SRWD ADM DE BENS PROPRIOS EIRELI</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>De: 08/11/2023a08/11/2024</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>53123089677007</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>401292 - FACILIT CORRETORA DE SEGUROS LTD</t>
+          <t>505987 - LA OSSA CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
     </row>
@@ -3991,12 +3991,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>101617</t>
+          <t>13403</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4006,17 +4006,17 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>GERALDO DE ALMEIDA</t>
+          <t>JOAO PROCOPIO FERREIRA</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>De: 21/10/2023a21/10/2024</t>
+          <t>De: 21/11/2023a21/11/2024</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>53123089199750</t>
+          <t>53103CGQK2BHT2</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>404395 - FAMILIA CASTELLO CORR DE SEG LTD</t>
+          <t>497004 - LCA SEG CORRETORA DE SEGUROS EIR</t>
         </is>
       </c>
     </row>
@@ -4061,12 +4061,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>101361</t>
+          <t>13409</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4076,17 +4076,17 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>YOLANDA BERNADETE BARBOSA MACHADO</t>
+          <t>ADEGILDA JOSE FERREIRA DE PAULA</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>De: 30/10/2023a30/10/2024</t>
+          <t>De: 21/11/2023a21/11/2024</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>53123088921117</t>
+          <t>53103CGQK3LSH3</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>524248 - FORTIS CORRETORA DE SEGUROS E IN</t>
+          <t>497004 - LCA SEG CORRETORA DE SEGUROS EIR</t>
         </is>
       </c>
     </row>
@@ -4136,7 +4136,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>101100</t>
+          <t>102381</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -4146,22 +4146,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>AMPLIVALLE ELET INSTALACOES LTDA</t>
+          <t>RUI ALBERTO DE ANDRADE</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>De: 05/10/2023a05/10/2024</t>
+          <t>De: 24/11/2023a24/11/2024</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>53123088666354</t>
+          <t>53123090462752</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>400048 - FRANCISCO VICENTE LEMES DE PAIVA</t>
+          <t>497004 - LCA SEG CORRETORA DE SEGUROS EIR</t>
         </is>
       </c>
     </row>
@@ -4194,14 +4194,46 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>102411</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>RUI ALBERTO DE ANDRADE</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>De: 24/11/2023a24/11/2024</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>53123090527994</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -4224,7 +4256,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>509062 - FS ACERTO CONSULT E CORR DE SEGU</t>
+          <t>497004 - LCA SEG CORRETORA DE SEGUROS EIR</t>
         </is>
       </c>
     </row>
@@ -4232,14 +4264,46 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>13489</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>RUI ALBERTO DE ANDRADE</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>De: 29/11/2023a29/11/2024</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>53103CGQKKR2P8</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J58" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -4262,7 +4326,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>421702 - GAMARRA CORRETORA DE SEGUROS LTD</t>
+          <t>497004 - LCA SEG CORRETORA DE SEGUROS EIR</t>
         </is>
       </c>
     </row>
@@ -4270,46 +4334,14 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>100836</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>ANDREZA LIMA DA CRUZ</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>De: 07/10/2023a07/10/2024</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>53123088254684</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -4332,7 +4364,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>481920 - GF INVEST SEGURO CORR DE SEG LTD</t>
+          <t>480434 - MACEDO MARCONDES ADM E CORR DE S</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4384,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2606</t>
+          <t>2679</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4362,17 +4394,17 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>VALUTI MULHER CALCADOS LTDA</t>
+          <t>ESTILUS COMERCIO DE OCULOS RELOGIOS E PRESENTES LT</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>De: 18/10/2023a18/10/2024</t>
+          <t>De: 11/11/2023a11/11/2024</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>53103CGORS5B57</t>
+          <t>53103CGOS7SKX1</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4402,7 +4434,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>481920 - GF INVEST SEGURO CORR DE SEG LTD</t>
+          <t>445129 - MULTIPLA ADM CORRETORA DE SEGURO</t>
         </is>
       </c>
     </row>
@@ -4417,12 +4449,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>926</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>13095</t>
+          <t>2680</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4432,17 +4464,17 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>ALVARO JOSE FERREIRA NUNES</t>
+          <t>OTICA SAO DIMAS LTDA</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>De: 25/10/2023a25/10/2024</t>
+          <t>De: 11/11/2023a11/11/2024</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>53103CGQI8AY92</t>
+          <t>53103CGOS80AP6</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4472,7 +4504,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>481920 - GF INVEST SEGURO CORR DE SEG LTD</t>
+          <t>445129 - MULTIPLA ADM CORRETORA DE SEGURO</t>
         </is>
       </c>
     </row>
@@ -4487,12 +4519,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>101309</t>
+          <t>13413</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4502,17 +4534,17 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>NELSON CALMINATTI JUNIOR</t>
+          <t>TATIANA MOTA MIRANDA</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>De: 24/10/2023a24/10/2024</t>
+          <t>De: 23/11/2023a23/11/2024</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>53123088868526</t>
+          <t>53103CGQK4GNL3</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4542,7 +4574,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>404640 - IMS CORRETORA DE SEGUROS LTDA</t>
+          <t>445129 - MULTIPLA ADM CORRETORA DE SEGURO</t>
         </is>
       </c>
     </row>
@@ -4557,12 +4589,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>101856</t>
+          <t>13442</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -4572,17 +4604,17 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>NILZA GOMES DOS SANTOS</t>
+          <t>GUILHERME AUGUSTO AURICHIO</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>De: 24/10/2023a24/10/2024</t>
+          <t>De: 23/11/2023a23/11/2024</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>53123089518499</t>
+          <t>53103CGQKAOF59</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4612,7 +4644,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>404640 - IMS CORRETORA DE SEGUROS LTDA</t>
+          <t>445129 - MULTIPLA ADM CORRETORA DE SEGURO</t>
         </is>
       </c>
     </row>
@@ -4627,12 +4659,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>101572</t>
+          <t>13354</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -4642,17 +4674,17 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>RAPHAEL JANNUZZI NETTO</t>
+          <t>EDUARDO MENEGATTI MARQUES</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>De: 27/10/2023a27/10/2024</t>
+          <t>De: 30/11/2023a30/11/2024</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>53123089140216</t>
+          <t>53103CGQJRTEP2</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4682,7 +4714,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>404640 - IMS CORRETORA DE SEGUROS LTDA</t>
+          <t>445129 - MULTIPLA ADM CORRETORA DE SEGURO</t>
         </is>
       </c>
     </row>
@@ -4720,7 +4752,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>505987 - LA OSSA CORRETORA DE SEGUROS LTD</t>
+          <t>479511 - OLIVEIRA CESNIK CONSULTORIA E CO</t>
         </is>
       </c>
     </row>
@@ -4728,46 +4760,14 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>101562</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>ELISABETH WENZEL</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>De: 20/10/2023a20/10/2024</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>53123089140119</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>497004 - LCA SEG CORRETORA DE SEGUROS EIR</t>
+          <t>401344 - PAIVA &amp; PAIVA COR.DE SEGS.LTDA</t>
         </is>
       </c>
     </row>
@@ -4810,7 +4810,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>101212</t>
+          <t>101869</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -4820,17 +4820,17 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>ROGERIO DE CARVALHO VELOSO IVO</t>
+          <t>EDLAMAR DE SOUZA PINHEIRO</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>De: 23/10/2023a23/10/2024</t>
+          <t>De: 01/11/2023a01/11/2024</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>53123088743545</t>
+          <t>53123089518626</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>497004 - LCA SEG CORRETORA DE SEGUROS EIR</t>
+          <t>404241 - PAPARELE CORR DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -4875,32 +4875,32 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>926</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>101978</t>
+          <t>2681</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>F C DA SILVA FARIA LOCACOES</t>
+          <t>ARMAZEM DO JUCA</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>De: 27/10/2023a27/10/2024</t>
+          <t>De: 07/11/2023a07/11/2024</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>00000000000000</t>
+          <t>53103CGOS880H8</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>497004 - LCA SEG CORRETORA DE SEGUROS EIR</t>
+          <t>404241 - PAPARELE CORR DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -4945,12 +4945,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>926</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>101978</t>
+          <t>2682</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4960,17 +4960,17 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>F C DA SILVA FARIA LOCACOES</t>
+          <t>ARMAZEM DO JUCA</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>De: 27/10/2023a27/10/2024</t>
+          <t>De: 07/11/2023a07/11/2024</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>53123089631040</t>
+          <t>53103CGOS8FQ94</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5000,7 +5000,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>497004 - LCA SEG CORRETORA DE SEGUROS EIR</t>
+          <t>404241 - PAPARELE CORR DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -5020,27 +5020,27 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>101978</t>
+          <t>102547</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>F C DA SILVA FARIA LOCACOES</t>
+          <t>LUIZ DE SOUZA TEIXEIRA</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>De: 27/10/2023a27/10/2024</t>
+          <t>De: 14/11/2023a14/11/2024</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>53123089630965</t>
+          <t>53123090834943</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5070,7 +5070,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>497004 - LCA SEG CORRETORA DE SEGUROS EIR</t>
+          <t>404241 - PAPARELE CORR DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -5090,27 +5090,27 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>101978</t>
+          <t>102436</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>F C DA SILVA FARIA LOCACOES</t>
+          <t>CAPISTRANO E FERREIRA LTDA</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>De: 27/10/2023a27/10/2024</t>
+          <t>De: 16/11/2023a16/11/2024</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>53123089631058</t>
+          <t>53123090581344</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>497004 - LCA SEG CORRETORA DE SEGUROS EIR</t>
+          <t>404241 - PAPARELE CORR DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -5155,32 +5155,32 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>600</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>101978</t>
+          <t>241</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>F C DA SILVA FARIA LOCACOES</t>
+          <t>SIMONIA CRISTINA RODRIGUES</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>De: 27/10/2023a27/10/2024</t>
+          <t>De: 04/11/2023a04/11/2024</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>53123089630973</t>
+          <t>53103CGODP8UP5</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>497004 - LCA SEG CORRETORA DE SEGUROS EIR</t>
+          <t>479506 - PATRICIA AUGUSTA DE ARAUJO</t>
         </is>
       </c>
     </row>
@@ -5225,32 +5225,32 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>101978</t>
+          <t>13240</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>F C DA SILVA FARIA LOCACOES</t>
+          <t>TAKEO NILSON HATAKEYAMA</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>De: 27/10/2023a27/10/2024</t>
+          <t>De: 06/11/2023a06/11/2024</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>53123089631066</t>
+          <t>53103CGQJ3DS10</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5280,7 +5280,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>497004 - LCA SEG CORRETORA DE SEGUROS EIR</t>
+          <t>479506 - PATRICIA AUGUSTA DE ARAUJO</t>
         </is>
       </c>
     </row>
@@ -5300,27 +5300,27 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>101978</t>
+          <t>102088</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>F C DA SILVA FARIA LOCACOES</t>
+          <t>YAMA TERRAPLENAGEM E CONSTRUCOES LTDA</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>De: 27/10/2023a27/10/2024</t>
+          <t>De: 10/11/2023a10/11/2024</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>53123089630981</t>
+          <t>53123089915218</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>497004 - LCA SEG CORRETORA DE SEGUROS EIR</t>
+          <t>479506 - PATRICIA AUGUSTA DE ARAUJO</t>
         </is>
       </c>
     </row>
@@ -5370,27 +5370,27 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>101978</t>
+          <t>102092</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>F C DA SILVA FARIA LOCACOES</t>
+          <t>CRISTIANO GONCALVES CARBONE</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>De: 27/10/2023a27/10/2024</t>
+          <t>De: 18/11/2023a18/11/2024</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>53123089630990</t>
+          <t>53123089915250</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5420,7 +5420,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>497004 - LCA SEG CORRETORA DE SEGUROS EIR</t>
+          <t>479506 - PATRICIA AUGUSTA DE ARAUJO</t>
         </is>
       </c>
     </row>
@@ -5435,32 +5435,32 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>101978</t>
+          <t>13412</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>F C DA SILVA FARIA LOCACOES</t>
+          <t>MARIA THEREZA DE CARVALHO CASTILHO</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>De: 27/10/2023a27/10/2024</t>
+          <t>De: 21/11/2023a21/11/2024</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>53123089631007</t>
+          <t>53103CGQK48XT6</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>497004 - LCA SEG CORRETORA DE SEGUROS EIR</t>
+          <t>479506 - PATRICIA AUGUSTA DE ARAUJO</t>
         </is>
       </c>
     </row>
@@ -5510,27 +5510,27 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>101978</t>
+          <t>102422</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>F C DA SILVA FARIA LOCACOES</t>
+          <t>GABRIEL AUGUSTO ALVES BATISTA</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>De: 27/10/2023a27/10/2024</t>
+          <t>De: 28/11/2023a28/11/2024</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>53123089631015</t>
+          <t>53123090528109</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>497004 - LCA SEG CORRETORA DE SEGUROS EIR</t>
+          <t>479506 - PATRICIA AUGUSTA DE ARAUJO</t>
         </is>
       </c>
     </row>
@@ -5568,46 +5568,14 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>101978</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>F C DA SILVA FARIA LOCACOES</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>De: 27/10/2023a27/10/2024</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>53123089631023</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -5630,7 +5598,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>497004 - LCA SEG CORRETORA DE SEGUROS EIR</t>
+          <t>400999 - PATRICIA DE CASTRO CARDOSO</t>
         </is>
       </c>
     </row>
@@ -5638,46 +5606,14 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>101978</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>F C DA SILVA FARIA LOCACOES</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>De: 27/10/2023a27/10/2024</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>53123089631031</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -5700,7 +5636,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>497004 - LCA SEG CORRETORA DE SEGUROS EIR</t>
+          <t>401270 - PAULO ROBERTO DE PADUA SANTOS</t>
         </is>
       </c>
     </row>
@@ -5708,46 +5644,14 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>101978</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>F C DA SILVA FARIA LOCACOES</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>De: 27/10/2023a27/10/2024</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>53123089631074</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -5770,7 +5674,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>497004 - LCA SEG CORRETORA DE SEGUROS EIR</t>
+          <t>436328 - PLENAMENTE CONS. E CORR SEGS LTD</t>
         </is>
       </c>
     </row>
@@ -5778,14 +5682,46 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>102355</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>VIRTUS TELECOM E SERVICOS LTDA ME</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>De: 17/11/2023a17/11/2024</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>53123090462493</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J81" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -5808,7 +5744,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>480434 - MACEDO MARCONDES ADM E CORR DE S</t>
+          <t>498234 - PORTO BR CORRERTORA DE SEGUROS L</t>
         </is>
       </c>
     </row>
@@ -5828,7 +5764,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>12935</t>
+          <t>13219</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -5838,17 +5774,17 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>MARIA LUIZA GRAMACHO DO ESPIRITO SANTO</t>
+          <t>FABIANA APARECIDA DE SOUZA CAETANO</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>De: 11/10/2023a11/10/2024</t>
+          <t>De: 08/11/2023a08/11/2024</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>53103CGQHA0DT7</t>
+          <t>53103CGQIYVQP6</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -5878,7 +5814,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>445129 - MULTIPLA ADM CORRETORA DE SEGURO</t>
+          <t>402591 - PR CORREA LIMA COR SEG SC LT</t>
         </is>
       </c>
     </row>
@@ -5893,12 +5829,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>12937</t>
+          <t>102280</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -5908,17 +5844,17 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>CESAR SACRAMENTO DIAS</t>
+          <t>DINALVA RODRIGUES MARAIA MEDEIROS</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>De: 11/10/2023a11/10/2024</t>
+          <t>De: 18/11/2023a18/11/2024</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>53103CGQHAFTD2</t>
+          <t>53123090381892</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5948,7 +5884,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>445129 - MULTIPLA ADM CORRETORA DE SEGURO</t>
+          <t>402591 - PR CORREA LIMA COR SEG SC LT</t>
         </is>
       </c>
     </row>
@@ -5968,7 +5904,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>101293</t>
+          <t>102115</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -5978,17 +5914,17 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>NALDO WINALDARIO CLARINDO DOS SANTOS</t>
+          <t>OSIRIS PIRES DE OLIVEIRA</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>De: 17/10/2023a17/10/2024</t>
+          <t>De: 22/11/2023a22/11/2024</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>53123088868364</t>
+          <t>53123089979054</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6018,7 +5954,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>445129 - MULTIPLA ADM CORRETORA DE SEGURO</t>
+          <t>402591 - PR CORREA LIMA COR SEG SC LT</t>
         </is>
       </c>
     </row>
@@ -6026,14 +5962,46 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>102615</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>VERA LUCIA DE PAULA SOUZA</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>De: 28/11/2023a28/11/2024</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>53123090964200</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J85" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -6056,7 +6024,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>479511 - OLIVEIRA CESNIK CONSULTORIA E CO</t>
+          <t>402591 - PR CORREA LIMA COR SEG SC LT</t>
         </is>
       </c>
     </row>
@@ -6064,14 +6032,46 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>102629</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>VALE LUB PRODUTOS AUTOMOTIVOS LTDA</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>De: 27/11/2023a27/11/2024</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>53123090964340</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J86" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -6094,7 +6094,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>401344 - PAIVA &amp; PAIVA COR.DE SEGS.LTDA</t>
+          <t>487985 - RAFAEL FREIRE MUNIZ BARRETO SEGS</t>
         </is>
       </c>
     </row>
@@ -6102,46 +6102,14 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>12918</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>LUIZ VALDEMIR PAPARELE</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>De: 10/10/2023a10/10/2024</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>53103CGQH6D7L4</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -6164,7 +6132,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>404241 - PAPARELE CORR DE SEGUROS LTDA</t>
+          <t>401244 - RICARDO LINHARES MACHADO DA SILV</t>
         </is>
       </c>
     </row>
@@ -6184,7 +6152,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>101604</t>
+          <t>101878</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -6194,17 +6162,17 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>ADEMIR LEMOS PONTES</t>
+          <t>JULIANA DOS SANTOS</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>De: 17/10/2023a17/10/2024</t>
+          <t>De: 07/11/2023a07/11/2024</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>53123089199628</t>
+          <t>53123089518715</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6234,7 +6202,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>404241 - PAPARELE CORR DE SEGUROS LTDA</t>
+          <t>482713 - ROSATI CORRETORA DE SEGUROS EIRE</t>
         </is>
       </c>
     </row>
@@ -6254,7 +6222,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>101632</t>
+          <t>102244</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -6264,17 +6232,17 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>GIULIANO MIELLI</t>
+          <t>LUCHETTI COM DE MATERIAIS PARA CONSTRUCA</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>De: 24/10/2023a24/10/2024</t>
+          <t>De: 14/11/2023a14/11/2024</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>53123089199903</t>
+          <t>53123090263652</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6304,7 +6272,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>404241 - PAPARELE CORR DE SEGUROS LTDA</t>
+          <t>482713 - ROSATI CORRETORA DE SEGUROS EIRE</t>
         </is>
       </c>
     </row>
@@ -6319,12 +6287,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>919</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>13167</t>
+          <t>1346</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -6334,17 +6302,17 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>FABIO LEONARDI</t>
+          <t>CONDOMINIO SOLAR DAS GAIVOTAS</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>De: 30/10/2023a30/10/2024</t>
+          <t>De: 24/11/2023a24/11/2024</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>53103CGQINQI98</t>
+          <t>53103CGOKA3355</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6374,7 +6342,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>404241 - PAPARELE CORR DE SEGUROS LTDA</t>
+          <t>482713 - ROSATI CORRETORA DE SEGUROS EIRE</t>
         </is>
       </c>
     </row>
@@ -6394,7 +6362,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>101985</t>
+          <t>102552</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -6404,17 +6372,17 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>MK ANGELO E ANGELO LTDA</t>
+          <t>SEBASTIAO RODRIGUES FERNANDES</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>De: 31/10/2023a31/10/2024</t>
+          <t>De: 30/11/2023a30/11/2024</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>53123089733586</t>
+          <t>53123090834994</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6444,7 +6412,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>404241 - PAPARELE CORR DE SEGUROS LTDA</t>
+          <t>482713 - ROSATI CORRETORA DE SEGUROS EIRE</t>
         </is>
       </c>
     </row>
@@ -6452,46 +6420,14 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>101895</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>PEDRO FERREIRA</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>De: 28/10/2023a28/10/2024</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>53123089606827</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -6514,7 +6450,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>479506 - PATRICIA AUGUSTA DE ARAUJO</t>
+          <t>439165 - RSP CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -6534,7 +6470,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>101591</t>
+          <t>102148</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -6544,17 +6480,17 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>ISLAYNE PEREIRA RUIVO</t>
+          <t>CAMILA PINHEIRO DO PRADO ROSSI BRITTO</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>De: 30/10/2023a30/10/2024</t>
+          <t>De: 20/11/2023a20/11/2024</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>53123089140402</t>
+          <t>53123090033142</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -6584,7 +6520,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>479506 - PATRICIA AUGUSTA DE ARAUJO</t>
+          <t>401895 - SEGNET CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -6604,7 +6540,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>101822</t>
+          <t>101714</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -6614,17 +6550,17 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>SIMONE PRISCILA AUGUSTA DE AZEVEDO</t>
+          <t>VINICIUS MOREIRA COIMBRA</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>De: 30/10/2023a30/10/2024</t>
+          <t>De: 03/11/2023a03/11/2024</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>53123089458321</t>
+          <t>53123089265981</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -6654,7 +6590,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>479506 - PATRICIA AUGUSTA DE ARAUJO</t>
+          <t>484699 - SEGURAKI CORR DE SEGS, CONS E PR</t>
         </is>
       </c>
     </row>
@@ -6662,14 +6598,46 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>13416</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>ORDILEY GONCALVES DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>De: 25/11/2023a25/11/2024</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>53103CGQK53SX6</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J95" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -6692,7 +6660,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>400999 - PATRICIA DE CASTRO CARDOSO</t>
+          <t>484699 - SEGURAKI CORR DE SEGS, CONS E PR</t>
         </is>
       </c>
     </row>
@@ -6700,46 +6668,14 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>13053</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>DANIEL VILAS BOAS RENTERO</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>De: 20/10/2023a20/10/2024</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>53103CGQHZAVL7</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -6762,7 +6698,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>401270 - PAULO ROBERTO DE PADUA SANTOS</t>
+          <t>480856 - SILVA &amp; MARTINS DE OLIVEIRA CORR</t>
         </is>
       </c>
     </row>
@@ -6770,46 +6706,14 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>101354</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>SHIRLENE FREIRE GALVAO</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>De: 17/10/2023a17/10/2024</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>53123088921044</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -6832,7 +6736,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>436328 - PLENAMENTE CONS. E CORR SEGS LTD</t>
+          <t>400201 - SILVIO RODRIGUES SILVA</t>
         </is>
       </c>
     </row>
@@ -6847,12 +6751,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>13227</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -6862,17 +6766,17 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>MODAMAX</t>
+          <t>SILVIO SERGIO DE ANDRADE</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>De: 10/10/2023a10/10/2024</t>
+          <t>De: 02/11/2023a02/11/2024</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>53103CGORSSGH0</t>
+          <t>53103CGQJ0LGX6</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -6902,7 +6806,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>498234 - PORTO BR CORRERTORA DE SEGUROS L</t>
+          <t>482711 - SOUSA DIAS ADM E CORR DE SEGUROS</t>
         </is>
       </c>
     </row>
@@ -6917,12 +6821,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2620</t>
+          <t>13233</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -6932,17 +6836,17 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>MODA MAX VESTUARIO</t>
+          <t>ELSA SATIE HIROSE KOBAYASHI</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>De: 10/10/2023a10/10/2024</t>
+          <t>De: 05/11/2023a05/11/2024</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>53103CGORV5C18</t>
+          <t>53103CGQJ1VRL7</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -6972,7 +6876,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>498234 - PORTO BR CORRERTORA DE SEGUROS L</t>
+          <t>482711 - SOUSA DIAS ADM E CORR DE SEGUROS</t>
         </is>
       </c>
     </row>
@@ -6987,12 +6891,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>101496</t>
+          <t>13351</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -7002,17 +6906,17 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>PAULA NATALIA BISCUOLA</t>
+          <t>HENRIQUE HABERBECK BRANDAO</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>De: 18/10/2023a18/10/2024</t>
+          <t>De: 16/11/2023a16/11/2024</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>53123089063793</t>
+          <t>53103CGQJR69D6</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7042,7 +6946,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>402591 - PR CORREA LIMA COR SEG SC LT</t>
+          <t>482711 - SOUSA DIAS ADM E CORR DE SEGUROS</t>
         </is>
       </c>
     </row>
@@ -7050,14 +6954,46 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>13441</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>IVAIL DE TOLEDO JUVENAL</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>De: 22/11/2023a22/11/2024</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>53103CGQKAGPD3</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J101" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -7080,7 +7016,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>487985 - RAFAEL FREIRE MUNIZ BARRETO SEGS</t>
+          <t>482711 - SOUSA DIAS ADM E CORR DE SEGUROS</t>
         </is>
       </c>
     </row>
@@ -7088,14 +7024,46 @@
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>13545</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>RITA DE CASSIA RIBEIRO SANTOS</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>De: 29/11/2023a29/11/2024</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>53103CGQKWR694</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J102" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -7118,7 +7086,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>401244 - RICARDO LINHARES MACHADO DA SILV</t>
+          <t>482711 - SOUSA DIAS ADM E CORR DE SEGUROS</t>
         </is>
       </c>
     </row>
@@ -7126,46 +7094,14 @@
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>919</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>1323</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>EDIFICIO RESIDENCIAL TOORI</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>De: 18/10/2023a18/10/2024</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>53103CGOK55M94</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -7188,7 +7124,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>482713 - ROSATI CORRETORA DE SEGUROS EIRE</t>
+          <t>507449 - SOUZA E RODRIGUES CORRETORA DE S</t>
         </is>
       </c>
     </row>
@@ -7196,14 +7132,46 @@
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>101966</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>JULIO HIROKI TAKAHASHI</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>De: 01/11/2023a01/11/2024</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>53123089676990</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J104" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -7226,7 +7194,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>439165 - RSP CORRETORA DE SEGUROS LTDA</t>
+          <t>492495 - T &amp; E CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -7241,12 +7209,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>101558</t>
+          <t>13226</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -7256,17 +7224,17 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>CIBELE APARECIDA DE SOUZA MOTA</t>
+          <t>FELIPE DE PAULA XAVIER</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>De: 11/10/2023a11/10/2024</t>
+          <t>De: 02/11/2023a02/11/2024</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>53123089140070</t>
+          <t>53103CGQJ0DR59</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7296,7 +7264,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>401895 - SEGNET CORRETORA DE SEGUROS LTDA</t>
+          <t>492495 - T &amp; E CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -7311,12 +7279,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>101697</t>
+          <t>13232</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -7326,17 +7294,17 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>DANIEL EDER DE MELO</t>
+          <t>FELIPE DE PAULA XAVIER</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>De: 28/10/2023a28/10/2024</t>
+          <t>De: 03/11/2023a03/11/2024</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>53123089265817</t>
+          <t>53103CGQJ1O1T8</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7366,7 +7334,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>401895 - SEGNET CORRETORA DE SEGUROS LTDA</t>
+          <t>492495 - T &amp; E CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -7381,12 +7349,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>919</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>101494</t>
+          <t>1336</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -7396,17 +7364,17 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>CLAYTON JEAN BERNARDO DOS SANTOS</t>
+          <t>CONDOMINIO RESIDENCIAL VERSATILLE</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>De: 08/10/2023a08/10/2024</t>
+          <t>De: 11/11/2023a11/11/2024</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>53123089063777</t>
+          <t>53103CGOK7XXD8</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -7436,7 +7404,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>484699 - SEGURAKI CORR DE SEGS, CONS E PR</t>
+          <t>492495 - T &amp; E CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -7456,7 +7424,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>101101</t>
+          <t>102514</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -7466,17 +7434,17 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>ANTONIO PERICO</t>
+          <t>JOHAB CORREIA ILARIO</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>De: 05/10/2023a05/10/2024</t>
+          <t>De: 23/11/2023a23/11/2024</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>53123088666362</t>
+          <t>53123090764244</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -7506,7 +7474,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>480856 - SILVA &amp; MARTINS DE OLIVEIRA CORR</t>
+          <t>492495 - T &amp; E CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -7521,12 +7489,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2623</t>
+          <t>102591</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -7536,22 +7504,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>WASHINGTON LUIZ DE SOUZA</t>
+          <t>TRANS-CARGO TRANSPORTADORA EIRELI</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>De: 21/10/2023a21/10/2024</t>
+          <t>De: 23/11/2023a23/11/2024</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>53103CGORVSHD0</t>
+          <t>53123090901217</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -7576,7 +7544,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>400201 - SILVIO RODRIGUES SILVA</t>
+          <t>492495 - T &amp; E CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -7591,12 +7559,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>13090</t>
+          <t>102697</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -7606,17 +7574,17 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>CELIO DA SILVA FRANCO</t>
+          <t>ROSELENE CRISTINA DA SILVA</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>De: 24/10/2023a24/10/2024</t>
+          <t>De: 29/11/2023a29/11/2024</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>53103CGQI78DD7</t>
+          <t>53123091101303</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -7646,7 +7614,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>482711 - SOUSA DIAS ADM E CORR DE SEGUROS</t>
+          <t>492495 - T &amp; E CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -7661,12 +7629,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>926</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>101801</t>
+          <t>2712</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -7676,17 +7644,17 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>ALEXANDRE BOLANHO DA ROSA</t>
+          <t>VALE CHADE AUTOPECAS ACESSORIOS E MECANICA LTDA</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>De: 30/10/2023a30/10/2024</t>
+          <t>De: 30/11/2023a30/11/2024</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>53123089405244</t>
+          <t>53103CGOSEV7L3</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -7716,7 +7684,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>482711 - SOUSA DIAS ADM E CORR DE SEGUROS</t>
+          <t>492495 - T &amp; E CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -7731,12 +7699,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>926</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>13185</t>
+          <t>2713</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -7746,17 +7714,17 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>VANESSA SOUZA PORTILHO BOLANHO DA ROSA</t>
+          <t>ANDRE MECANICA DIESEL</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>De: 31/10/2023a31/10/2024</t>
+          <t>De: 30/11/2023a30/11/2024</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>53103CGQIRLE99</t>
+          <t>53103CGOSF2XD4</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -7786,7 +7754,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>482711 - SOUSA DIAS ADM E CORR DE SEGUROS</t>
+          <t>492495 - T &amp; E CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -7794,46 +7762,14 @@
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>101115</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>ANDERSON RIBEIRO DE SOUZA</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>De: 10/10/2023a10/10/2024</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>53123088666508</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -7856,7 +7792,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>507449 - SOUZA E RODRIGUES CORRETORA DE S</t>
+          <t>486554 - TONAREC CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
     </row>
@@ -7864,46 +7800,14 @@
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>101318</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>ROSANGELA DE ALMEIDA CORREA</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>De: 21/10/2023a21/10/2024</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>53123088868615</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -7926,7 +7830,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>507449 - SOUZA E RODRIGUES CORRETORA DE S</t>
+          <t>498759 - V &amp; B PRADO CORRETORA DE SEGUROS</t>
         </is>
       </c>
     </row>
@@ -7946,7 +7850,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>100757</t>
+          <t>102081</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -7956,17 +7860,17 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>IZABEL CRISTINA DO CARMO DE SOUZA</t>
+          <t>ANA CLAUDIA XAVIER DA SILVA</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>De: 01/10/2023a01/10/2024</t>
+          <t>De: 07/11/2023a07/11/2024</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>53123088076344</t>
+          <t>53123089915145</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -7996,7 +7900,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>492495 - T &amp; E CORRETORA DE SEGUROS LTDA</t>
+          <t>440531 - VALE MUNDIAL CORRETORA DE SEG.</t>
         </is>
       </c>
     </row>
@@ -8011,12 +7915,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>917</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>1317</t>
+          <t>1565</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -8026,17 +7930,17 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>CONDOMINIO EDIFICIO CONTEMPORANEA</t>
+          <t>KOMBAT SOLUCOES EM MAQUINAS E EQUIPAMENTOS LTDA EP</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>De: 15/10/2023a15/10/2024</t>
+          <t>De: 22/11/2023a22/11/2024</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>53103CGOK3VBL9</t>
+          <t>53103CGOLL0WH8</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8066,7 +7970,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>486554 - TONAREC CORRETORA DE SEGUROS LTD</t>
+          <t>440531 - VALE MUNDIAL CORRETORA DE SEG.</t>
         </is>
       </c>
     </row>
@@ -8081,12 +7985,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>917</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>12979</t>
+          <t>1566</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -8096,17 +8000,17 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>ELISABETE CASTRO NOGUEIRA</t>
+          <t>KOMBAT SOLUCAOES EM MAQUINAS E EQUIPAMENTOS LTDA</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>De: 16/10/2023a16/10/2024</t>
+          <t>De: 22/11/2023a22/11/2024</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>53103CGQHJFW18</t>
+          <t>53103CGOLL8M93</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8136,7 +8040,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>486554 - TONAREC CORRETORA DE SEGUROS LTD</t>
+          <t>440531 - VALE MUNDIAL CORRETORA DE SEG.</t>
         </is>
       </c>
     </row>
@@ -8144,14 +8048,46 @@
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>917</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1567</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>KOMBAT SOLUCOES EM MAQUINAS E EQUIPAMENTOS LTDA</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>De: 22/11/2023a22/11/2024</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>53103CGOLLGC10</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J118" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -8174,7 +8110,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>498759 - V &amp; B PRADO CORRETORA DE SEGUROS</t>
+          <t>440531 - VALE MUNDIAL CORRETORA DE SEG.</t>
         </is>
       </c>
     </row>
@@ -8194,7 +8130,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>101290</t>
+          <t>102371</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -8204,17 +8140,17 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>VAGNER BUENO DOS SANTOS</t>
+          <t>HERICK FERRARI HAMASAKI</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>De: 16/10/2023a16/10/2024</t>
+          <t>De: 28/11/2023a28/11/2024</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>53123088868330</t>
+          <t>53123090462655</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8264,7 +8200,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>101557</t>
+          <t>102521</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -8274,17 +8210,17 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>MARIA EDUARDA IVO</t>
+          <t>RONALDO DA NOBREGA DIAS</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>De: 18/10/2023a18/10/2024</t>
+          <t>De: 29/11/2023a29/11/2024</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>53123089140062</t>
+          <t>53123090764317</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -8329,12 +8265,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>919</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>13032</t>
+          <t>1354</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -8344,17 +8280,17 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>FERNANDO HENRIQUE PEREIRA</t>
+          <t>ASSOCIACAO EDIFICIO ANHANGUERA</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>De: 23/10/2023a23/10/2024</t>
+          <t>De: 30/11/2023a30/11/2024</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>53103CGQHUSU91</t>
+          <t>53103CGOKBSTD7</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -8399,12 +8335,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>101944</t>
+          <t>13459</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -8414,17 +8350,17 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>MARIA APARECIDA PEREIRA DAS NEVES</t>
+          <t>JOSE RODOLFO AMERY</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>De: 30/10/2023a30/10/2024</t>
+          <t>De: 23/11/2023a23/11/2024</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>53123089676779</t>
+          <t>53103CGQKEBLD4</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -8454,7 +8390,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>440531 - VALE MUNDIAL CORRETORA DE SEG.</t>
+          <t>492247 - VALE SEG CORRETORA DE SEGUROS</t>
         </is>
       </c>
     </row>
@@ -8474,7 +8410,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>101986</t>
+          <t>101930</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -8484,17 +8420,17 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>LUIZ ADOLFO DE SOUZA NUNES</t>
+          <t>MARILIA PALMA BARDELLA</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>De: 31/10/2023a31/10/2024</t>
+          <t>De: 05/11/2023a05/11/2024</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>53123089733594</t>
+          <t>53123089607173</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -8524,7 +8460,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>440531 - VALE MUNDIAL CORRETORA DE SEG.</t>
+          <t>410606 - VENCENDO MEU SEGURO COR SEGS LTD</t>
         </is>
       </c>
     </row>
@@ -8539,12 +8475,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>919</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>101129</t>
+          <t>1334</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -8554,17 +8490,17 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>ELIANA NASTAS</t>
+          <t>CONDOMINIO SOUL PARQUE</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>De: 13/10/2023a13/10/2024</t>
+          <t>De: 07/11/2023a07/11/2024</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>53123088666648</t>
+          <t>53103CGOK7IHT7</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -8594,7 +8530,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>492247 - VALE SEG CORRETORA DE SEGUROS</t>
+          <t>403377 - VIA EXATA COR.DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -8614,7 +8550,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>100269</t>
+          <t>102207</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -8624,17 +8560,17 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>MARIA LUISA BARBOSA</t>
+          <t>CAMILA PICOLO KALLAUR</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>De: 10/10/2023a10/10/2024</t>
+          <t>De: 30/11/2023a30/11/2024</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>53123087285462</t>
+          <t>53123090180005</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -8664,7 +8600,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>410606 - VENCENDO MEU SEGURO COR SEGS LTD</t>
+          <t>403377 - VIA EXATA COR.DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -8679,12 +8615,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>917</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>1530</t>
+          <t>101877</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -8694,17 +8630,17 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>KEILA SEABRA TELES FERREIRA</t>
+          <t>TATIANE CORTE  CARDOSO</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>De: 17/10/2023a17/10/2024</t>
+          <t>De: 04/11/2023a04/11/2024</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>53103CGOLDIU96</t>
+          <t>53123089518707</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -8734,7 +8670,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>403377 - VIA EXATA COR.DE SEGUROS LTDA</t>
+          <t>443746 - VILA NOVA CORRETORA DE SEGUROS</t>
         </is>
       </c>
     </row>
@@ -8749,12 +8685,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>101008</t>
+          <t>13316</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -8764,17 +8700,17 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>JOSE GERALDO PEREIRA</t>
+          <t>ADRIANO RODOLFO DA SILVA</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>De: 03/10/2023a03/10/2024</t>
+          <t>De: 13/11/2023a13/11/2024</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>53123088526102</t>
+          <t>53103CGQJJO754</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -8824,7 +8760,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>101102</t>
+          <t>102258</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -8834,17 +8770,17 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>SARA DAMARIS DO NASCIMENTO</t>
+          <t>JOSE PAULO NASCIMENTO RIBEIRO</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>De: 06/10/2023a06/10/2024</t>
+          <t>De: 23/11/2023a23/11/2024</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>53123088666370</t>
+          <t>53123090295457</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -8894,7 +8830,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>101162</t>
+          <t>102247</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -8904,17 +8840,17 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>ANGELA MARTYNIAK</t>
+          <t>NOBUTERU INAZAKI</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>De: 14/10/2023a14/10/2024</t>
+          <t>De: 25/11/2023a25/11/2024</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>53123088743049</t>
+          <t>53123090263687</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -8959,12 +8895,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>101188</t>
+          <t>13370</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -8974,17 +8910,17 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>CELI COSTA DOS SANTOS SILVA</t>
+          <t>CONFEDERACAO BRASILEIRA DE TIRO COM ARCO</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>De: 16/10/2023a16/10/2024</t>
+          <t>De: 16/11/2023a16/11/2024</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>53123088743308</t>
+          <t>53103CGQJV8V59</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9013,1546 +8949,6 @@
         </is>
       </c>
       <c r="N130" t="inlineStr">
-        <is>
-          <t>443746 - VILA NOVA CORRETORA DE SEGUROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>101403</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>RAFAEL MOREIRA DE ALMEIDA</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>De: 20/10/2023a20/10/2024</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>53123088921532</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>944 - SAO JOSE DOS CAMPOS MERCADO</t>
-        </is>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>342.581.618-70 - Aline Regina Diogo Gonzaga</t>
-        </is>
-      </c>
-      <c r="N131" t="inlineStr">
-        <is>
-          <t>443746 - VILA NOVA CORRETORA DE SEGUROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>101504</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>DIANA ALINE APARECIDA SILVERIO DOS SANTO</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>De: 20/10/2023a20/10/2024</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>53123089063874</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>944 - SAO JOSE DOS CAMPOS MERCADO</t>
-        </is>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>342.581.618-70 - Aline Regina Diogo Gonzaga</t>
-        </is>
-      </c>
-      <c r="N132" t="inlineStr">
-        <is>
-          <t>443746 - VILA NOVA CORRETORA DE SEGUROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>101805</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>RICARDO ASATO</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>De: 24/10/2023a24/10/2024</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>53123089458151</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>944 - SAO JOSE DOS CAMPOS MERCADO</t>
-        </is>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>342.581.618-70 - Aline Regina Diogo Gonzaga</t>
-        </is>
-      </c>
-      <c r="N133" t="inlineStr">
-        <is>
-          <t>443746 - VILA NOVA CORRETORA DE SEGUROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>101715</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>TATIANA MARIA MARTINS GARIANI</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>De: 26/10/2023a26/10/2024</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>53123089265990</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>944 - SAO JOSE DOS CAMPOS MERCADO</t>
-        </is>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>342.581.618-70 - Aline Regina Diogo Gonzaga</t>
-        </is>
-      </c>
-      <c r="N134" t="inlineStr">
-        <is>
-          <t>443746 - VILA NOVA CORRETORA DE SEGUROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>101405</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>CONTATEC SERVICOS ELETRICOS LTDA</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>De: 05/10/2023a05/10/2024</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>00000000000000</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>944 - SAO JOSE DOS CAMPOS MERCADO</t>
-        </is>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>342.581.618-70 - Aline Regina Diogo Gonzaga</t>
-        </is>
-      </c>
-      <c r="N135" t="inlineStr">
-        <is>
-          <t>503672 - ZION CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>101405</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>CONTATEC SERVICOS ELETRICOS LTDA</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>De: 05/10/2023a05/10/2024</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>53123088885145</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>944 - SAO JOSE DOS CAMPOS MERCADO</t>
-        </is>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>342.581.618-70 - Aline Regina Diogo Gonzaga</t>
-        </is>
-      </c>
-      <c r="N136" t="inlineStr">
-        <is>
-          <t>503672 - ZION CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>101405</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>CONTATEC SERVICOS ELETRICOS LTDA</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>De: 05/10/2023a05/10/2024</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>53123088885153</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>944 - SAO JOSE DOS CAMPOS MERCADO</t>
-        </is>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>342.581.618-70 - Aline Regina Diogo Gonzaga</t>
-        </is>
-      </c>
-      <c r="N137" t="inlineStr">
-        <is>
-          <t>503672 - ZION CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>101405</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>CONTATEC SERVICOS ELETRICOS LTDA</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>De: 05/10/2023a05/10/2024</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>53123088885161</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>944 - SAO JOSE DOS CAMPOS MERCADO</t>
-        </is>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>342.581.618-70 - Aline Regina Diogo Gonzaga</t>
-        </is>
-      </c>
-      <c r="N138" t="inlineStr">
-        <is>
-          <t>503672 - ZION CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>101405</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>CONTATEC SERVICOS ELETRICOS LTDA</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>De: 05/10/2023a05/10/2024</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>53123088885170</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>944 - SAO JOSE DOS CAMPOS MERCADO</t>
-        </is>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>342.581.618-70 - Aline Regina Diogo Gonzaga</t>
-        </is>
-      </c>
-      <c r="N139" t="inlineStr">
-        <is>
-          <t>503672 - ZION CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>101405</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>CONTATEC SERVICOS ELETRICOS LTDA</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>De: 05/10/2023a05/10/2024</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>53123088885188</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>944 - SAO JOSE DOS CAMPOS MERCADO</t>
-        </is>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>342.581.618-70 - Aline Regina Diogo Gonzaga</t>
-        </is>
-      </c>
-      <c r="N140" t="inlineStr">
-        <is>
-          <t>503672 - ZION CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>101405</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>CONTATEC SERVICOS ELETRICOS LTDA</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>De: 05/10/2023a05/10/2024</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>53123088885196</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>944 - SAO JOSE DOS CAMPOS MERCADO</t>
-        </is>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>342.581.618-70 - Aline Regina Diogo Gonzaga</t>
-        </is>
-      </c>
-      <c r="N141" t="inlineStr">
-        <is>
-          <t>503672 - ZION CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>101405</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>CONTATEC SERVICOS ELETRICOS LTDA</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>De: 05/10/2023a05/10/2024</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>53123088885200</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>944 - SAO JOSE DOS CAMPOS MERCADO</t>
-        </is>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>342.581.618-70 - Aline Regina Diogo Gonzaga</t>
-        </is>
-      </c>
-      <c r="N142" t="inlineStr">
-        <is>
-          <t>503672 - ZION CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>101405</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>CONTATEC SERVICOS ELETRICOS LTDA</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>De: 05/10/2023a05/10/2024</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>53123088885218</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>944 - SAO JOSE DOS CAMPOS MERCADO</t>
-        </is>
-      </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>342.581.618-70 - Aline Regina Diogo Gonzaga</t>
-        </is>
-      </c>
-      <c r="N143" t="inlineStr">
-        <is>
-          <t>503672 - ZION CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>101405</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>CONTATEC SERVICOS ELETRICOS LTDA</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>De: 05/10/2023a05/10/2024</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>53123088885226</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>944 - SAO JOSE DOS CAMPOS MERCADO</t>
-        </is>
-      </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>342.581.618-70 - Aline Regina Diogo Gonzaga</t>
-        </is>
-      </c>
-      <c r="N144" t="inlineStr">
-        <is>
-          <t>503672 - ZION CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>101405</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>CONTATEC SERVICOS ELETRICOS LTDA</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>De: 05/10/2023a05/10/2024</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>53123088885234</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>944 - SAO JOSE DOS CAMPOS MERCADO</t>
-        </is>
-      </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>342.581.618-70 - Aline Regina Diogo Gonzaga</t>
-        </is>
-      </c>
-      <c r="N145" t="inlineStr">
-        <is>
-          <t>503672 - ZION CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>101405</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>CONTATEC SERVICOS ELETRICOS LTDA</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>De: 05/10/2023a05/10/2024</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>53123088885242</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>944 - SAO JOSE DOS CAMPOS MERCADO</t>
-        </is>
-      </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>342.581.618-70 - Aline Regina Diogo Gonzaga</t>
-        </is>
-      </c>
-      <c r="N146" t="inlineStr">
-        <is>
-          <t>503672 - ZION CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>101405</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>CONTATEC SERVICOS ELETRICOS LTDA</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>De: 05/10/2023a05/10/2024</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>53123088885250</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>944 - SAO JOSE DOS CAMPOS MERCADO</t>
-        </is>
-      </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>342.581.618-70 - Aline Regina Diogo Gonzaga</t>
-        </is>
-      </c>
-      <c r="N147" t="inlineStr">
-        <is>
-          <t>503672 - ZION CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>101405</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>CONTATEC SERVICOS ELETRICOS LTDA</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>De: 05/10/2023a05/10/2024</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>53123088885269</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>944 - SAO JOSE DOS CAMPOS MERCADO</t>
-        </is>
-      </c>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>342.581.618-70 - Aline Regina Diogo Gonzaga</t>
-        </is>
-      </c>
-      <c r="N148" t="inlineStr">
-        <is>
-          <t>503672 - ZION CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>101405</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>CONTATEC SERVICOS ELETRICOS LTDA</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>De: 05/10/2023a05/10/2024</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>53123088885277</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>944 - SAO JOSE DOS CAMPOS MERCADO</t>
-        </is>
-      </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>342.581.618-70 - Aline Regina Diogo Gonzaga</t>
-        </is>
-      </c>
-      <c r="N149" t="inlineStr">
-        <is>
-          <t>503672 - ZION CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>101405</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>CONTATEC SERVICOS ELETRICOS LTDA</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>De: 21/10/2023a05/10/2024</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>53123089687649</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>944 - SAO JOSE DOS CAMPOS MERCADO</t>
-        </is>
-      </c>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>342.581.618-70 - Aline Regina Diogo Gonzaga</t>
-        </is>
-      </c>
-      <c r="N150" t="inlineStr">
-        <is>
-          <t>503672 - ZION CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>101127</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>ADRIANA SBRUZZI PRADO</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>De: 11/10/2023a11/10/2024</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>53123088666621</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>944 - SAO JOSE DOS CAMPOS MERCADO</t>
-        </is>
-      </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>342.581.618-70 - Aline Regina Diogo Gonzaga</t>
-        </is>
-      </c>
-      <c r="N151" t="inlineStr">
-        <is>
-          <t>503672 - ZION CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>13089</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>ITALO IRINEU APARECIDO SOARES</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>De: 24/10/2023a24/10/2024</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>53103CGQI70NL4</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>944 - SAO JOSE DOS CAMPOS MERCADO</t>
-        </is>
-      </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>342.581.618-70 - Aline Regina Diogo Gonzaga</t>
-        </is>
-      </c>
-      <c r="N152" t="inlineStr">
         <is>
           <t>503672 - ZION CORRETORA DE SEGUROS LTDA</t>
         </is>
